--- a/Code/Results/Cases/Case_2_80/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_80/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.024816644315454</v>
+        <v>1.048154189308476</v>
       </c>
       <c r="D2">
-        <v>1.041253255146465</v>
+        <v>1.054302183303247</v>
       </c>
       <c r="E2">
-        <v>1.033576610566974</v>
+        <v>1.059078281672559</v>
       </c>
       <c r="F2">
-        <v>1.044521284254579</v>
+        <v>1.066550078969349</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058379735431791</v>
+        <v>1.047422977314475</v>
       </c>
       <c r="J2">
-        <v>1.046279608750597</v>
+        <v>1.053199449270076</v>
       </c>
       <c r="K2">
-        <v>1.052166295235435</v>
+        <v>1.057045768333732</v>
       </c>
       <c r="L2">
-        <v>1.044587178956376</v>
+        <v>1.061808767481459</v>
       </c>
       <c r="M2">
-        <v>1.05539334780354</v>
+        <v>1.069260326811885</v>
       </c>
       <c r="N2">
-        <v>1.018924220175868</v>
+        <v>1.021545651555174</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.029557185183163</v>
+        <v>1.04913576325401</v>
       </c>
       <c r="D3">
-        <v>1.044925847073024</v>
+        <v>1.055084001901032</v>
       </c>
       <c r="E3">
-        <v>1.037862826716731</v>
+        <v>1.060055359126811</v>
       </c>
       <c r="F3">
-        <v>1.048884295369324</v>
+        <v>1.067524359233582</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060138724351646</v>
+        <v>1.047718898713166</v>
       </c>
       <c r="J3">
-        <v>1.049273285467291</v>
+        <v>1.053829628130604</v>
       </c>
       <c r="K3">
-        <v>1.055014436814165</v>
+        <v>1.057640883458389</v>
       </c>
       <c r="L3">
-        <v>1.048033124816586</v>
+        <v>1.062599591252257</v>
       </c>
       <c r="M3">
-        <v>1.058927685395287</v>
+        <v>1.07004982529948</v>
       </c>
       <c r="N3">
-        <v>1.019943671575529</v>
+        <v>1.021758240382928</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.032559011697725</v>
+        <v>1.049771058748669</v>
       </c>
       <c r="D4">
-        <v>1.047254357642591</v>
+        <v>1.05559004213255</v>
       </c>
       <c r="E4">
-        <v>1.040587661453986</v>
+        <v>1.060688655791143</v>
       </c>
       <c r="F4">
-        <v>1.051654953082979</v>
+        <v>1.068155557672584</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061242139108895</v>
+        <v>1.047909133268098</v>
       </c>
       <c r="J4">
-        <v>1.05116499559933</v>
+        <v>1.054236923959538</v>
       </c>
       <c r="K4">
-        <v>1.056814049678932</v>
+        <v>1.058025454619695</v>
       </c>
       <c r="L4">
-        <v>1.050219716627728</v>
+        <v>1.06311174795419</v>
       </c>
       <c r="M4">
-        <v>1.061167494778622</v>
+        <v>1.070560834666068</v>
       </c>
       <c r="N4">
-        <v>1.020587631476953</v>
+        <v>1.021895563769327</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.033805839610072</v>
+        <v>1.050038172689308</v>
       </c>
       <c r="D5">
-        <v>1.04822217493619</v>
+        <v>1.055802816652312</v>
       </c>
       <c r="E5">
-        <v>1.041721962965522</v>
+        <v>1.060955146961633</v>
       </c>
       <c r="F5">
-        <v>1.052807615547024</v>
+        <v>1.068421097756509</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061697909994603</v>
+        <v>1.047988809057039</v>
       </c>
       <c r="J5">
-        <v>1.051949745412741</v>
+        <v>1.054408037454384</v>
       </c>
       <c r="K5">
-        <v>1.057560554180869</v>
+        <v>1.058187005967689</v>
       </c>
       <c r="L5">
-        <v>1.051128978361108</v>
+        <v>1.063327163292843</v>
       </c>
       <c r="M5">
-        <v>1.062098199257219</v>
+        <v>1.070775698291258</v>
       </c>
       <c r="N5">
-        <v>1.020854707946848</v>
+        <v>1.021953237771691</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.034014315702558</v>
+        <v>1.050083024373479</v>
       </c>
       <c r="D6">
-        <v>1.048384036155565</v>
+        <v>1.055838544465308</v>
       </c>
       <c r="E6">
-        <v>1.04191177123709</v>
+        <v>1.060999906822353</v>
       </c>
       <c r="F6">
-        <v>1.053000454393771</v>
+        <v>1.068465693880319</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061773966825133</v>
+        <v>1.048002169437223</v>
       </c>
       <c r="J6">
-        <v>1.052080900818945</v>
+        <v>1.054436761478015</v>
       </c>
       <c r="K6">
-        <v>1.05768531505686</v>
+        <v>1.058214123953135</v>
       </c>
       <c r="L6">
-        <v>1.051281072014466</v>
+        <v>1.063363338588008</v>
       </c>
       <c r="M6">
-        <v>1.062253839335729</v>
+        <v>1.070811776883256</v>
       </c>
       <c r="N6">
-        <v>1.020899340729075</v>
+        <v>1.021962918154</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.032575730630033</v>
+        <v>1.049774627798572</v>
       </c>
       <c r="D7">
-        <v>1.04726733274615</v>
+        <v>1.055592885099039</v>
       </c>
       <c r="E7">
-        <v>1.040602861582529</v>
+        <v>1.060692215665398</v>
       </c>
       <c r="F7">
-        <v>1.051670402070206</v>
+        <v>1.068159105109448</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061248260705447</v>
+        <v>1.047910199074577</v>
       </c>
       <c r="J7">
-        <v>1.051175522378947</v>
+        <v>1.054239210833914</v>
       </c>
       <c r="K7">
-        <v>1.056824063597534</v>
+        <v>1.058027613758442</v>
       </c>
       <c r="L7">
-        <v>1.050231904993365</v>
+        <v>1.063114625934336</v>
       </c>
       <c r="M7">
-        <v>1.061179973288569</v>
+        <v>1.070563705546781</v>
       </c>
       <c r="N7">
-        <v>1.020591214340084</v>
+        <v>1.021896334635528</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.02643267206035</v>
+        <v>1.048485885110075</v>
       </c>
       <c r="D8">
-        <v>1.042504577724307</v>
+        <v>1.05456637061403</v>
       </c>
       <c r="E8">
-        <v>1.035035489293077</v>
+        <v>1.059408269005808</v>
       </c>
       <c r="F8">
-        <v>1.046006931579785</v>
+        <v>1.066879180674625</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058981528632976</v>
+        <v>1.047523243146972</v>
       </c>
       <c r="J8">
-        <v>1.047300948472686</v>
+        <v>1.053412518503299</v>
       </c>
       <c r="K8">
-        <v>1.053138006374565</v>
+        <v>1.057246995050558</v>
       </c>
       <c r="L8">
-        <v>1.045760908064249</v>
+        <v>1.062075938270435</v>
       </c>
       <c r="M8">
-        <v>1.056597786848209</v>
+        <v>1.069527109719327</v>
       </c>
       <c r="N8">
-        <v>1.019272067725778</v>
+        <v>1.021617545589663</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.015078049214579</v>
+        <v>1.04621614071675</v>
       </c>
       <c r="D9">
-        <v>1.033727064921695</v>
+        <v>1.052758724734131</v>
       </c>
       <c r="E9">
-        <v>1.024832440111138</v>
+        <v>1.057153972289869</v>
       </c>
       <c r="F9">
-        <v>1.035603798557078</v>
+        <v>1.064629763148433</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054710515679663</v>
+        <v>1.046831850623533</v>
       </c>
       <c r="J9">
-        <v>1.0401093719421</v>
+        <v>1.051952195042402</v>
       </c>
       <c r="K9">
-        <v>1.046295657441238</v>
+        <v>1.055867585380746</v>
       </c>
       <c r="L9">
-        <v>1.037535078107638</v>
+        <v>1.060249052882164</v>
       </c>
       <c r="M9">
-        <v>1.048144481917055</v>
+        <v>1.067701690833803</v>
       </c>
       <c r="N9">
-        <v>1.016821991793402</v>
+        <v>1.021124490833441</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.007111456874483</v>
+        <v>1.044703805285126</v>
       </c>
       <c r="D10">
-        <v>1.027589670713184</v>
+        <v>1.051554496107365</v>
       </c>
       <c r="E10">
-        <v>1.017736447390575</v>
+        <v>1.055656669318426</v>
       </c>
       <c r="F10">
-        <v>1.028352047021354</v>
+        <v>1.063134226880043</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051661485316984</v>
+        <v>1.046364541861962</v>
       </c>
       <c r="J10">
-        <v>1.035045737534502</v>
+        <v>1.050976273210976</v>
       </c>
       <c r="K10">
-        <v>1.041478034003285</v>
+        <v>1.054945425559868</v>
       </c>
       <c r="L10">
-        <v>1.031792682643484</v>
+        <v>1.059033476341922</v>
       </c>
       <c r="M10">
-        <v>1.042227594383787</v>
+        <v>1.066485599292979</v>
       </c>
       <c r="N10">
-        <v>1.015096145799555</v>
+        <v>1.020794599532389</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.00355779799769</v>
+        <v>1.044049149428152</v>
       </c>
       <c r="D11">
-        <v>1.024857810640285</v>
+        <v>1.051033269943737</v>
       </c>
       <c r="E11">
-        <v>1.014586821452437</v>
+        <v>1.055009652147845</v>
       </c>
       <c r="F11">
-        <v>1.02512924853934</v>
+        <v>1.062487621913804</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050289580346539</v>
+        <v>1.04616068361112</v>
       </c>
       <c r="J11">
-        <v>1.032783313782488</v>
+        <v>1.050553133080819</v>
       </c>
       <c r="K11">
-        <v>1.039325692127476</v>
+        <v>1.054545522958533</v>
       </c>
       <c r="L11">
-        <v>1.02923879659086</v>
+        <v>1.058507685360044</v>
       </c>
       <c r="M11">
-        <v>1.039592329757515</v>
+        <v>1.065959231144457</v>
       </c>
       <c r="N11">
-        <v>1.014324948953908</v>
+        <v>1.020651474655175</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.002221257796834</v>
+        <v>1.043806010826233</v>
       </c>
       <c r="D12">
-        <v>1.023831306735769</v>
+        <v>1.050839696233242</v>
       </c>
       <c r="E12">
-        <v>1.013404671194686</v>
+        <v>1.054769521172981</v>
       </c>
       <c r="F12">
-        <v>1.023919018598328</v>
+        <v>1.062247591012464</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049771881543766</v>
+        <v>1.046084734997087</v>
       </c>
       <c r="J12">
-        <v>1.031931906605394</v>
+        <v>1.05039587648478</v>
       </c>
       <c r="K12">
-        <v>1.038515748573937</v>
+        <v>1.054396891608779</v>
       </c>
       <c r="L12">
-        <v>1.028279487314937</v>
+        <v>1.058312468358256</v>
       </c>
       <c r="M12">
-        <v>1.038601880327211</v>
+        <v>1.065763746528781</v>
       </c>
       <c r="N12">
-        <v>1.014034721466662</v>
+        <v>1.020598269934216</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.002508714760731</v>
+        <v>1.043858163530117</v>
       </c>
       <c r="D13">
-        <v>1.024052038052676</v>
+        <v>1.050881216947835</v>
       </c>
       <c r="E13">
-        <v>1.013658811530809</v>
+        <v>1.054821021015892</v>
       </c>
       <c r="F13">
-        <v>1.024179223528186</v>
+        <v>1.062299071789887</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049883302720525</v>
+        <v>1.046101036480346</v>
       </c>
       <c r="J13">
-        <v>1.032115045299755</v>
+        <v>1.050429612328627</v>
       </c>
       <c r="K13">
-        <v>1.038689966515879</v>
+        <v>1.054428777587761</v>
       </c>
       <c r="L13">
-        <v>1.028485755198008</v>
+        <v>1.058354339200498</v>
       </c>
       <c r="M13">
-        <v>1.038814869814181</v>
+        <v>1.065805677184116</v>
       </c>
       <c r="N13">
-        <v>1.014097149927547</v>
+        <v>1.020609684413379</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.00344766239517</v>
+        <v>1.044029050906732</v>
       </c>
       <c r="D14">
-        <v>1.024773203237854</v>
+        <v>1.05101726840405</v>
       </c>
       <c r="E14">
-        <v>1.014489358246746</v>
+        <v>1.054989798760835</v>
       </c>
       <c r="F14">
-        <v>1.025029482861874</v>
+        <v>1.062467777881055</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050246954813634</v>
+        <v>1.04615441029519</v>
       </c>
       <c r="J14">
-        <v>1.032713164782661</v>
+        <v>1.050540135901938</v>
       </c>
       <c r="K14">
-        <v>1.039258958565965</v>
+        <v>1.05453323887141</v>
       </c>
       <c r="L14">
-        <v>1.029159721066933</v>
+        <v>1.058491546919541</v>
       </c>
       <c r="M14">
-        <v>1.039510699023643</v>
+        <v>1.065943071668862</v>
       </c>
       <c r="N14">
-        <v>1.014301036671942</v>
+        <v>1.020647077586896</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.004023956969801</v>
+        <v>1.044134344210686</v>
       </c>
       <c r="D15">
-        <v>1.025215958590117</v>
+        <v>1.051101098583019</v>
       </c>
       <c r="E15">
-        <v>1.01499944291782</v>
+        <v>1.055093814831984</v>
       </c>
       <c r="F15">
-        <v>1.025551592608133</v>
+        <v>1.062571742774912</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050469926967912</v>
+        <v>1.046187265650111</v>
       </c>
       <c r="J15">
-        <v>1.03308020559146</v>
+        <v>1.050608222073689</v>
       </c>
       <c r="K15">
-        <v>1.039608130350911</v>
+        <v>1.054597589046072</v>
       </c>
       <c r="L15">
-        <v>1.029573540827297</v>
+        <v>1.058576096434583</v>
       </c>
       <c r="M15">
-        <v>1.039937867407493</v>
+        <v>1.066027729202558</v>
       </c>
       <c r="N15">
-        <v>1.014426152744127</v>
+        <v>1.02067011122831</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007345032079496</v>
+        <v>1.044747256786799</v>
       </c>
       <c r="D16">
-        <v>1.027769358813747</v>
+        <v>1.051589092733334</v>
       </c>
       <c r="E16">
-        <v>1.017943799099146</v>
+        <v>1.05569963771308</v>
       </c>
       <c r="F16">
-        <v>1.028564130967234</v>
+        <v>1.063177160482212</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05175141638935</v>
+        <v>1.046378039468456</v>
       </c>
       <c r="J16">
-        <v>1.035194369726533</v>
+        <v>1.051004343886177</v>
       </c>
       <c r="K16">
-        <v>1.041619438703563</v>
+        <v>1.054971953162604</v>
       </c>
       <c r="L16">
-        <v>1.031960709103326</v>
+        <v>1.0590683832594</v>
       </c>
       <c r="M16">
-        <v>1.042400895846472</v>
+        <v>1.066520537051599</v>
       </c>
       <c r="N16">
-        <v>1.01514680903803</v>
+        <v>1.020804092387187</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009399765310711</v>
+        <v>1.045131773225093</v>
       </c>
       <c r="D17">
-        <v>1.029350727622576</v>
+        <v>1.051895256192379</v>
       </c>
       <c r="E17">
-        <v>1.019769639707817</v>
+        <v>1.056080009790284</v>
       </c>
       <c r="F17">
-        <v>1.030431180021236</v>
+        <v>1.063557183928312</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052541191087289</v>
+        <v>1.046497302693481</v>
       </c>
       <c r="J17">
-        <v>1.03650145588303</v>
+        <v>1.051252671219579</v>
       </c>
       <c r="K17">
-        <v>1.042862985715208</v>
+        <v>1.055206621332852</v>
       </c>
       <c r="L17">
-        <v>1.03343969283946</v>
+        <v>1.059377332716179</v>
       </c>
       <c r="M17">
-        <v>1.04392588013688</v>
+        <v>1.066829718499143</v>
       </c>
       <c r="N17">
-        <v>1.015592336998235</v>
+        <v>1.020888060512412</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.010588280515176</v>
+        <v>1.045356073982201</v>
       </c>
       <c r="D18">
-        <v>1.030265984645001</v>
+        <v>1.052073856626078</v>
       </c>
       <c r="E18">
-        <v>1.020827238447264</v>
+        <v>1.056302002156365</v>
       </c>
       <c r="F18">
-        <v>1.031512265134067</v>
+        <v>1.063778938907036</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052996894453397</v>
+        <v>1.046566721152602</v>
       </c>
       <c r="J18">
-        <v>1.037257158126805</v>
+        <v>1.051397462327432</v>
       </c>
       <c r="K18">
-        <v>1.043581967041272</v>
+        <v>1.055343441246436</v>
       </c>
       <c r="L18">
-        <v>1.034295896473258</v>
+        <v>1.05955759184812</v>
       </c>
       <c r="M18">
-        <v>1.044808356056089</v>
+        <v>1.067010078776574</v>
       </c>
       <c r="N18">
-        <v>1.015849913376212</v>
+        <v>1.02093701068814</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.010991868144738</v>
+        <v>1.045432557925302</v>
       </c>
       <c r="D19">
-        <v>1.030576872091979</v>
+        <v>1.052134758202033</v>
       </c>
       <c r="E19">
-        <v>1.021186619503811</v>
+        <v>1.056377717459037</v>
       </c>
       <c r="F19">
-        <v>1.03187956232607</v>
+        <v>1.063854567494588</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053151446680412</v>
+        <v>1.046590366318843</v>
       </c>
       <c r="J19">
-        <v>1.037513712849319</v>
+        <v>1.051446823173209</v>
       </c>
       <c r="K19">
-        <v>1.043826057458386</v>
+        <v>1.05539008343434</v>
       </c>
       <c r="L19">
-        <v>1.034586759915121</v>
+        <v>1.059619064712912</v>
       </c>
       <c r="M19">
-        <v>1.045108083939134</v>
+        <v>1.06707158033397</v>
       </c>
       <c r="N19">
-        <v>1.015937356685794</v>
+        <v>1.020953696843532</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.009180350149579</v>
+        <v>1.045090516300394</v>
       </c>
       <c r="D20">
-        <v>1.029181803282239</v>
+        <v>1.051862405626895</v>
       </c>
       <c r="E20">
-        <v>1.019574512649945</v>
+        <v>1.0560391862435</v>
       </c>
       <c r="F20">
-        <v>1.03023168883248</v>
+        <v>1.063516401307169</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052456971114091</v>
+        <v>1.046484521952458</v>
       </c>
       <c r="J20">
-        <v>1.03636191466491</v>
+        <v>1.051226033630803</v>
       </c>
       <c r="K20">
-        <v>1.042730226160225</v>
+        <v>1.055181449659924</v>
       </c>
       <c r="L20">
-        <v>1.033281684238041</v>
+        <v>1.059344179757527</v>
       </c>
       <c r="M20">
-        <v>1.043762994200657</v>
+        <v>1.066796544184652</v>
       </c>
       <c r="N20">
-        <v>1.015544774457764</v>
+        <v>1.020879054319212</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.003171630381226</v>
+        <v>1.043978728009751</v>
       </c>
       <c r="D21">
-        <v>1.024561168016901</v>
+        <v>1.050977203725703</v>
       </c>
       <c r="E21">
-        <v>1.014245126401165</v>
+        <v>1.054940092392627</v>
       </c>
       <c r="F21">
-        <v>1.024779471325054</v>
+        <v>1.062418094077475</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050140095227185</v>
+        <v>1.046138699289012</v>
       </c>
       <c r="J21">
-        <v>1.032537342944934</v>
+        <v>1.050507591765201</v>
       </c>
       <c r="K21">
-        <v>1.039091697841018</v>
+        <v>1.054502480098652</v>
       </c>
       <c r="L21">
-        <v>1.028961554478081</v>
+        <v>1.058451140308335</v>
       </c>
       <c r="M21">
-        <v>1.039306119735439</v>
+        <v>1.06590261152933</v>
       </c>
       <c r="N21">
-        <v>1.014241102714873</v>
+        <v>1.02063606738021</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9992974327812699</v>
+        <v>1.043279874795843</v>
       </c>
       <c r="D22">
-        <v>1.021587566091155</v>
+        <v>1.050420832931652</v>
       </c>
       <c r="E22">
-        <v>1.010823152591867</v>
+        <v>1.054250206143026</v>
       </c>
       <c r="F22">
-        <v>1.02127503852616</v>
+        <v>1.061728395531547</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048636255189714</v>
+        <v>1.0459199560903</v>
       </c>
       <c r="J22">
-        <v>1.030068493098728</v>
+        <v>1.050055395953187</v>
       </c>
       <c r="K22">
-        <v>1.03674316583844</v>
+        <v>1.054075066216011</v>
       </c>
       <c r="L22">
-        <v>1.026183207213879</v>
+        <v>1.057890144180024</v>
       </c>
       <c r="M22">
-        <v>1.036436494975591</v>
+        <v>1.065340745833704</v>
       </c>
       <c r="N22">
-        <v>1.013399517276308</v>
+        <v>1.02048305031573</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.001360668984349</v>
+        <v>1.04365033365551</v>
       </c>
       <c r="D23">
-        <v>1.023170627413609</v>
+        <v>1.050715757223828</v>
       </c>
       <c r="E23">
-        <v>1.01264418824724</v>
+        <v>1.054615817841433</v>
       </c>
       <c r="F23">
-        <v>1.023140297133503</v>
+        <v>1.062093936824759</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049438060775563</v>
+        <v>1.046036040127074</v>
       </c>
       <c r="J23">
-        <v>1.031383556058552</v>
+        <v>1.050295159096963</v>
       </c>
       <c r="K23">
-        <v>1.037994114793359</v>
+        <v>1.054301695367446</v>
       </c>
       <c r="L23">
-        <v>1.027662145779755</v>
+        <v>1.058187491825171</v>
       </c>
       <c r="M23">
-        <v>1.037964337367103</v>
+        <v>1.065638583651581</v>
       </c>
       <c r="N23">
-        <v>1.013847798888034</v>
+        <v>1.020564190363375</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.009279525177679</v>
+        <v>1.04510915847056</v>
       </c>
       <c r="D24">
-        <v>1.029258154906199</v>
+        <v>1.051877249320214</v>
       </c>
       <c r="E24">
-        <v>1.019662704936014</v>
+        <v>1.056057632252338</v>
       </c>
       <c r="F24">
-        <v>1.030321854777574</v>
+        <v>1.063534828928625</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052495041793323</v>
+        <v>1.046490297469562</v>
       </c>
       <c r="J24">
-        <v>1.036424987996592</v>
+        <v>1.051238070177496</v>
       </c>
       <c r="K24">
-        <v>1.04279023410129</v>
+        <v>1.055192823834828</v>
       </c>
       <c r="L24">
-        <v>1.033353101454314</v>
+        <v>1.059359159985243</v>
       </c>
       <c r="M24">
-        <v>1.043836616999424</v>
+        <v>1.066811534167725</v>
       </c>
       <c r="N24">
-        <v>1.015566272993947</v>
+        <v>1.020883123913723</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.018080286023785</v>
+        <v>1.046802780466384</v>
       </c>
       <c r="D25">
-        <v>1.036044540476969</v>
+        <v>1.053225895758421</v>
       </c>
       <c r="E25">
-        <v>1.027519669059052</v>
+        <v>1.057735786234059</v>
       </c>
       <c r="F25">
-        <v>1.038346563929585</v>
+        <v>1.065210577546602</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055849013496525</v>
+        <v>1.047011718578489</v>
       </c>
       <c r="J25">
-        <v>1.042014129466313</v>
+        <v>1.052330144688975</v>
       </c>
       <c r="K25">
-        <v>1.048107941292222</v>
+        <v>1.056224648951276</v>
       </c>
       <c r="L25">
-        <v>1.039705286640792</v>
+        <v>1.06072093660273</v>
       </c>
       <c r="M25">
-        <v>1.050377396737192</v>
+        <v>1.068173458494329</v>
       </c>
       <c r="N25">
-        <v>1.017471069788582</v>
+        <v>1.021252167987374</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_80/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_80/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.048154189308476</v>
+        <v>1.024816644315452</v>
       </c>
       <c r="D2">
-        <v>1.054302183303247</v>
+        <v>1.041253255146463</v>
       </c>
       <c r="E2">
-        <v>1.059078281672559</v>
+        <v>1.033576610566972</v>
       </c>
       <c r="F2">
-        <v>1.066550078969349</v>
+        <v>1.044521284254577</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047422977314475</v>
+        <v>1.05837973543179</v>
       </c>
       <c r="J2">
-        <v>1.053199449270076</v>
+        <v>1.046279608750595</v>
       </c>
       <c r="K2">
-        <v>1.057045768333732</v>
+        <v>1.052166295235434</v>
       </c>
       <c r="L2">
-        <v>1.061808767481459</v>
+        <v>1.044587178956375</v>
       </c>
       <c r="M2">
-        <v>1.069260326811885</v>
+        <v>1.055393347803539</v>
       </c>
       <c r="N2">
-        <v>1.021545651555174</v>
+        <v>1.018924220175867</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04913576325401</v>
+        <v>1.029557185183163</v>
       </c>
       <c r="D3">
-        <v>1.055084001901032</v>
+        <v>1.044925847073024</v>
       </c>
       <c r="E3">
-        <v>1.060055359126811</v>
+        <v>1.037862826716731</v>
       </c>
       <c r="F3">
-        <v>1.067524359233582</v>
+        <v>1.048884295369324</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047718898713166</v>
+        <v>1.060138724351646</v>
       </c>
       <c r="J3">
-        <v>1.053829628130604</v>
+        <v>1.049273285467291</v>
       </c>
       <c r="K3">
-        <v>1.057640883458389</v>
+        <v>1.055014436814165</v>
       </c>
       <c r="L3">
-        <v>1.062599591252257</v>
+        <v>1.048033124816586</v>
       </c>
       <c r="M3">
-        <v>1.07004982529948</v>
+        <v>1.058927685395287</v>
       </c>
       <c r="N3">
-        <v>1.021758240382928</v>
+        <v>1.01994367157553</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049771058748669</v>
+        <v>1.032559011697726</v>
       </c>
       <c r="D4">
-        <v>1.05559004213255</v>
+        <v>1.047254357642592</v>
       </c>
       <c r="E4">
-        <v>1.060688655791143</v>
+        <v>1.040587661453986</v>
       </c>
       <c r="F4">
-        <v>1.068155557672584</v>
+        <v>1.05165495308298</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047909133268098</v>
+        <v>1.061242139108895</v>
       </c>
       <c r="J4">
-        <v>1.054236923959538</v>
+        <v>1.051164995599331</v>
       </c>
       <c r="K4">
-        <v>1.058025454619695</v>
+        <v>1.056814049678932</v>
       </c>
       <c r="L4">
-        <v>1.06311174795419</v>
+        <v>1.050219716627729</v>
       </c>
       <c r="M4">
-        <v>1.070560834666068</v>
+        <v>1.061167494778623</v>
       </c>
       <c r="N4">
-        <v>1.021895563769327</v>
+        <v>1.020587631476953</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050038172689308</v>
+        <v>1.033805839610072</v>
       </c>
       <c r="D5">
-        <v>1.055802816652312</v>
+        <v>1.04822217493619</v>
       </c>
       <c r="E5">
-        <v>1.060955146961633</v>
+        <v>1.041721962965522</v>
       </c>
       <c r="F5">
-        <v>1.068421097756509</v>
+        <v>1.052807615547025</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047988809057039</v>
+        <v>1.061697909994604</v>
       </c>
       <c r="J5">
-        <v>1.054408037454384</v>
+        <v>1.051949745412742</v>
       </c>
       <c r="K5">
-        <v>1.058187005967689</v>
+        <v>1.057560554180869</v>
       </c>
       <c r="L5">
-        <v>1.063327163292843</v>
+        <v>1.051128978361109</v>
       </c>
       <c r="M5">
-        <v>1.070775698291258</v>
+        <v>1.062098199257219</v>
       </c>
       <c r="N5">
-        <v>1.021953237771691</v>
+        <v>1.020854707946848</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050083024373479</v>
+        <v>1.034014315702557</v>
       </c>
       <c r="D6">
-        <v>1.055838544465308</v>
+        <v>1.048384036155565</v>
       </c>
       <c r="E6">
-        <v>1.060999906822353</v>
+        <v>1.04191177123709</v>
       </c>
       <c r="F6">
-        <v>1.068465693880319</v>
+        <v>1.053000454393771</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048002169437223</v>
+        <v>1.061773966825133</v>
       </c>
       <c r="J6">
-        <v>1.054436761478015</v>
+        <v>1.052080900818945</v>
       </c>
       <c r="K6">
-        <v>1.058214123953135</v>
+        <v>1.05768531505686</v>
       </c>
       <c r="L6">
-        <v>1.063363338588008</v>
+        <v>1.051281072014466</v>
       </c>
       <c r="M6">
-        <v>1.070811776883256</v>
+        <v>1.062253839335729</v>
       </c>
       <c r="N6">
-        <v>1.021962918154</v>
+        <v>1.020899340729074</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.049774627798572</v>
+        <v>1.032575730630033</v>
       </c>
       <c r="D7">
-        <v>1.055592885099039</v>
+        <v>1.04726733274615</v>
       </c>
       <c r="E7">
-        <v>1.060692215665398</v>
+        <v>1.040602861582529</v>
       </c>
       <c r="F7">
-        <v>1.068159105109448</v>
+        <v>1.051670402070206</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047910199074577</v>
+        <v>1.061248260705447</v>
       </c>
       <c r="J7">
-        <v>1.054239210833914</v>
+        <v>1.051175522378947</v>
       </c>
       <c r="K7">
-        <v>1.058027613758442</v>
+        <v>1.056824063597534</v>
       </c>
       <c r="L7">
-        <v>1.063114625934336</v>
+        <v>1.050231904993365</v>
       </c>
       <c r="M7">
-        <v>1.070563705546781</v>
+        <v>1.061179973288569</v>
       </c>
       <c r="N7">
-        <v>1.021896334635528</v>
+        <v>1.020591214340084</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048485885110075</v>
+        <v>1.02643267206035</v>
       </c>
       <c r="D8">
-        <v>1.05456637061403</v>
+        <v>1.042504577724307</v>
       </c>
       <c r="E8">
-        <v>1.059408269005808</v>
+        <v>1.035035489293077</v>
       </c>
       <c r="F8">
-        <v>1.066879180674625</v>
+        <v>1.046006931579785</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047523243146972</v>
+        <v>1.058981528632977</v>
       </c>
       <c r="J8">
-        <v>1.053412518503299</v>
+        <v>1.047300948472687</v>
       </c>
       <c r="K8">
-        <v>1.057246995050558</v>
+        <v>1.053138006374565</v>
       </c>
       <c r="L8">
-        <v>1.062075938270435</v>
+        <v>1.045760908064249</v>
       </c>
       <c r="M8">
-        <v>1.069527109719327</v>
+        <v>1.056597786848209</v>
       </c>
       <c r="N8">
-        <v>1.021617545589663</v>
+        <v>1.019272067725778</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04621614071675</v>
+        <v>1.015078049214577</v>
       </c>
       <c r="D9">
-        <v>1.052758724734131</v>
+        <v>1.033727064921694</v>
       </c>
       <c r="E9">
-        <v>1.057153972289869</v>
+        <v>1.024832440111136</v>
       </c>
       <c r="F9">
-        <v>1.064629763148433</v>
+        <v>1.035603798557077</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046831850623533</v>
+        <v>1.054710515679662</v>
       </c>
       <c r="J9">
-        <v>1.051952195042402</v>
+        <v>1.040109371942099</v>
       </c>
       <c r="K9">
-        <v>1.055867585380746</v>
+        <v>1.046295657441237</v>
       </c>
       <c r="L9">
-        <v>1.060249052882164</v>
+        <v>1.037535078107637</v>
       </c>
       <c r="M9">
-        <v>1.067701690833803</v>
+        <v>1.048144481917053</v>
       </c>
       <c r="N9">
-        <v>1.021124490833441</v>
+        <v>1.016821991793401</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.044703805285126</v>
+        <v>1.007111456874483</v>
       </c>
       <c r="D10">
-        <v>1.051554496107365</v>
+        <v>1.027589670713183</v>
       </c>
       <c r="E10">
-        <v>1.055656669318426</v>
+        <v>1.017736447390574</v>
       </c>
       <c r="F10">
-        <v>1.063134226880043</v>
+        <v>1.028352047021354</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046364541861962</v>
+        <v>1.051661485316984</v>
       </c>
       <c r="J10">
-        <v>1.050976273210976</v>
+        <v>1.035045737534502</v>
       </c>
       <c r="K10">
-        <v>1.054945425559868</v>
+        <v>1.041478034003285</v>
       </c>
       <c r="L10">
-        <v>1.059033476341922</v>
+        <v>1.031792682643484</v>
       </c>
       <c r="M10">
-        <v>1.066485599292979</v>
+        <v>1.042227594383787</v>
       </c>
       <c r="N10">
-        <v>1.020794599532389</v>
+        <v>1.015096145799555</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>1.044049149428152</v>
+        <v>1.003557797997691</v>
       </c>
       <c r="D11">
-        <v>1.051033269943737</v>
+        <v>1.024857810640285</v>
       </c>
       <c r="E11">
-        <v>1.055009652147845</v>
+        <v>1.014586821452437</v>
       </c>
       <c r="F11">
-        <v>1.062487621913804</v>
+        <v>1.02512924853934</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04616068361112</v>
+        <v>1.050289580346539</v>
       </c>
       <c r="J11">
-        <v>1.050553133080819</v>
+        <v>1.032783313782488</v>
       </c>
       <c r="K11">
-        <v>1.054545522958533</v>
+        <v>1.039325692127476</v>
       </c>
       <c r="L11">
-        <v>1.058507685360044</v>
+        <v>1.02923879659086</v>
       </c>
       <c r="M11">
-        <v>1.065959231144457</v>
+        <v>1.039592329757516</v>
       </c>
       <c r="N11">
-        <v>1.020651474655175</v>
+        <v>1.014324948953908</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043806010826233</v>
+        <v>1.002221257796835</v>
       </c>
       <c r="D12">
-        <v>1.050839696233242</v>
+        <v>1.02383130673577</v>
       </c>
       <c r="E12">
-        <v>1.054769521172981</v>
+        <v>1.013404671194686</v>
       </c>
       <c r="F12">
-        <v>1.062247591012464</v>
+        <v>1.023919018598329</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046084734997087</v>
+        <v>1.049771881543766</v>
       </c>
       <c r="J12">
-        <v>1.05039587648478</v>
+        <v>1.031931906605395</v>
       </c>
       <c r="K12">
-        <v>1.054396891608779</v>
+        <v>1.038515748573938</v>
       </c>
       <c r="L12">
-        <v>1.058312468358256</v>
+        <v>1.028279487314938</v>
       </c>
       <c r="M12">
-        <v>1.065763746528781</v>
+        <v>1.038601880327213</v>
       </c>
       <c r="N12">
-        <v>1.020598269934216</v>
+        <v>1.014034721466663</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043858163530117</v>
+        <v>1.002508714760732</v>
       </c>
       <c r="D13">
-        <v>1.050881216947835</v>
+        <v>1.024052038052677</v>
       </c>
       <c r="E13">
-        <v>1.054821021015892</v>
+        <v>1.013658811530809</v>
       </c>
       <c r="F13">
-        <v>1.062299071789887</v>
+        <v>1.024179223528186</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046101036480346</v>
+        <v>1.049883302720525</v>
       </c>
       <c r="J13">
-        <v>1.050429612328627</v>
+        <v>1.032115045299755</v>
       </c>
       <c r="K13">
-        <v>1.054428777587761</v>
+        <v>1.03868996651588</v>
       </c>
       <c r="L13">
-        <v>1.058354339200498</v>
+        <v>1.028485755198009</v>
       </c>
       <c r="M13">
-        <v>1.065805677184116</v>
+        <v>1.038814869814181</v>
       </c>
       <c r="N13">
-        <v>1.020609684413379</v>
+        <v>1.014097149927547</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044029050906732</v>
+        <v>1.00344766239517</v>
       </c>
       <c r="D14">
-        <v>1.05101726840405</v>
+        <v>1.024773203237854</v>
       </c>
       <c r="E14">
-        <v>1.054989798760835</v>
+        <v>1.014489358246746</v>
       </c>
       <c r="F14">
-        <v>1.062467777881055</v>
+        <v>1.025029482861874</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04615441029519</v>
+        <v>1.050246954813634</v>
       </c>
       <c r="J14">
-        <v>1.050540135901938</v>
+        <v>1.032713164782661</v>
       </c>
       <c r="K14">
-        <v>1.05453323887141</v>
+        <v>1.039258958565965</v>
       </c>
       <c r="L14">
-        <v>1.058491546919541</v>
+        <v>1.029159721066933</v>
       </c>
       <c r="M14">
-        <v>1.065943071668862</v>
+        <v>1.039510699023642</v>
       </c>
       <c r="N14">
-        <v>1.020647077586896</v>
+        <v>1.014301036671942</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044134344210686</v>
+        <v>1.004023956969801</v>
       </c>
       <c r="D15">
-        <v>1.051101098583019</v>
+        <v>1.025215958590116</v>
       </c>
       <c r="E15">
-        <v>1.055093814831984</v>
+        <v>1.014999442917819</v>
       </c>
       <c r="F15">
-        <v>1.062571742774912</v>
+        <v>1.025551592608133</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046187265650111</v>
+        <v>1.050469926967911</v>
       </c>
       <c r="J15">
-        <v>1.050608222073689</v>
+        <v>1.033080205591459</v>
       </c>
       <c r="K15">
-        <v>1.054597589046072</v>
+        <v>1.03960813035091</v>
       </c>
       <c r="L15">
-        <v>1.058576096434583</v>
+        <v>1.029573540827297</v>
       </c>
       <c r="M15">
-        <v>1.066027729202558</v>
+        <v>1.039937867407493</v>
       </c>
       <c r="N15">
-        <v>1.02067011122831</v>
+        <v>1.014426152744128</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.044747256786799</v>
+        <v>1.007345032079497</v>
       </c>
       <c r="D16">
-        <v>1.051589092733334</v>
+        <v>1.027769358813748</v>
       </c>
       <c r="E16">
-        <v>1.05569963771308</v>
+        <v>1.017943799099147</v>
       </c>
       <c r="F16">
-        <v>1.063177160482212</v>
+        <v>1.028564130967234</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046378039468456</v>
+        <v>1.051751416389351</v>
       </c>
       <c r="J16">
-        <v>1.051004343886177</v>
+        <v>1.035194369726534</v>
       </c>
       <c r="K16">
-        <v>1.054971953162604</v>
+        <v>1.041619438703564</v>
       </c>
       <c r="L16">
-        <v>1.0590683832594</v>
+        <v>1.031960709103327</v>
       </c>
       <c r="M16">
-        <v>1.066520537051599</v>
+        <v>1.042400895846473</v>
       </c>
       <c r="N16">
-        <v>1.020804092387187</v>
+        <v>1.01514680903803</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045131773225093</v>
+        <v>1.009399765310709</v>
       </c>
       <c r="D17">
-        <v>1.051895256192379</v>
+        <v>1.029350727622574</v>
       </c>
       <c r="E17">
-        <v>1.056080009790284</v>
+        <v>1.019769639707816</v>
       </c>
       <c r="F17">
-        <v>1.063557183928312</v>
+        <v>1.030431180021235</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046497302693481</v>
+        <v>1.052541191087288</v>
       </c>
       <c r="J17">
-        <v>1.051252671219579</v>
+        <v>1.036501455883029</v>
       </c>
       <c r="K17">
-        <v>1.055206621332852</v>
+        <v>1.042862985715206</v>
       </c>
       <c r="L17">
-        <v>1.059377332716179</v>
+        <v>1.03343969283946</v>
       </c>
       <c r="M17">
-        <v>1.066829718499143</v>
+        <v>1.043925880136878</v>
       </c>
       <c r="N17">
-        <v>1.020888060512412</v>
+        <v>1.015592336998235</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.045356073982201</v>
+        <v>1.010588280515176</v>
       </c>
       <c r="D18">
-        <v>1.052073856626078</v>
+        <v>1.030265984645002</v>
       </c>
       <c r="E18">
-        <v>1.056302002156365</v>
+        <v>1.020827238447265</v>
       </c>
       <c r="F18">
-        <v>1.063778938907036</v>
+        <v>1.031512265134068</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046566721152602</v>
+        <v>1.052996894453398</v>
       </c>
       <c r="J18">
-        <v>1.051397462327432</v>
+        <v>1.037257158126806</v>
       </c>
       <c r="K18">
-        <v>1.055343441246436</v>
+        <v>1.043581967041272</v>
       </c>
       <c r="L18">
-        <v>1.05955759184812</v>
+        <v>1.034295896473259</v>
       </c>
       <c r="M18">
-        <v>1.067010078776574</v>
+        <v>1.04480835605609</v>
       </c>
       <c r="N18">
-        <v>1.02093701068814</v>
+        <v>1.015849913376212</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045432557925302</v>
+        <v>1.010991868144738</v>
       </c>
       <c r="D19">
-        <v>1.052134758202033</v>
+        <v>1.030576872091979</v>
       </c>
       <c r="E19">
-        <v>1.056377717459037</v>
+        <v>1.021186619503811</v>
       </c>
       <c r="F19">
-        <v>1.063854567494588</v>
+        <v>1.03187956232607</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046590366318843</v>
+        <v>1.053151446680411</v>
       </c>
       <c r="J19">
-        <v>1.051446823173209</v>
+        <v>1.037513712849319</v>
       </c>
       <c r="K19">
-        <v>1.05539008343434</v>
+        <v>1.043826057458386</v>
       </c>
       <c r="L19">
-        <v>1.059619064712912</v>
+        <v>1.03458675991512</v>
       </c>
       <c r="M19">
-        <v>1.06707158033397</v>
+        <v>1.045108083939133</v>
       </c>
       <c r="N19">
-        <v>1.020953696843532</v>
+        <v>1.015937356685794</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045090516300394</v>
+        <v>1.00918035014958</v>
       </c>
       <c r="D20">
-        <v>1.051862405626895</v>
+        <v>1.02918180328224</v>
       </c>
       <c r="E20">
-        <v>1.0560391862435</v>
+        <v>1.019574512649946</v>
       </c>
       <c r="F20">
-        <v>1.063516401307169</v>
+        <v>1.030231688832481</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046484521952458</v>
+        <v>1.052456971114091</v>
       </c>
       <c r="J20">
-        <v>1.051226033630803</v>
+        <v>1.036361914664911</v>
       </c>
       <c r="K20">
-        <v>1.055181449659924</v>
+        <v>1.042730226160226</v>
       </c>
       <c r="L20">
-        <v>1.059344179757527</v>
+        <v>1.033281684238043</v>
       </c>
       <c r="M20">
-        <v>1.066796544184652</v>
+        <v>1.043762994200659</v>
       </c>
       <c r="N20">
-        <v>1.020879054319212</v>
+        <v>1.015544774457764</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043978728009751</v>
+        <v>1.003171630381226</v>
       </c>
       <c r="D21">
-        <v>1.050977203725703</v>
+        <v>1.024561168016901</v>
       </c>
       <c r="E21">
-        <v>1.054940092392627</v>
+        <v>1.014245126401165</v>
       </c>
       <c r="F21">
-        <v>1.062418094077475</v>
+        <v>1.024779471325054</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046138699289012</v>
+        <v>1.050140095227185</v>
       </c>
       <c r="J21">
-        <v>1.050507591765201</v>
+        <v>1.032537342944934</v>
       </c>
       <c r="K21">
-        <v>1.054502480098652</v>
+        <v>1.039091697841018</v>
       </c>
       <c r="L21">
-        <v>1.058451140308335</v>
+        <v>1.028961554478081</v>
       </c>
       <c r="M21">
-        <v>1.06590261152933</v>
+        <v>1.039306119735439</v>
       </c>
       <c r="N21">
-        <v>1.02063606738021</v>
+        <v>1.014241102714873</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043279874795843</v>
+        <v>0.9992974327812697</v>
       </c>
       <c r="D22">
-        <v>1.050420832931652</v>
+        <v>1.021587566091154</v>
       </c>
       <c r="E22">
-        <v>1.054250206143026</v>
+        <v>1.010823152591867</v>
       </c>
       <c r="F22">
-        <v>1.061728395531547</v>
+        <v>1.021275038526159</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0459199560903</v>
+        <v>1.048636255189714</v>
       </c>
       <c r="J22">
-        <v>1.050055395953187</v>
+        <v>1.030068493098728</v>
       </c>
       <c r="K22">
-        <v>1.054075066216011</v>
+        <v>1.03674316583844</v>
       </c>
       <c r="L22">
-        <v>1.057890144180024</v>
+        <v>1.026183207213879</v>
       </c>
       <c r="M22">
-        <v>1.065340745833704</v>
+        <v>1.036436494975591</v>
       </c>
       <c r="N22">
-        <v>1.02048305031573</v>
+        <v>1.013399517276308</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04365033365551</v>
+        <v>1.001360668984349</v>
       </c>
       <c r="D23">
-        <v>1.050715757223828</v>
+        <v>1.023170627413609</v>
       </c>
       <c r="E23">
-        <v>1.054615817841433</v>
+        <v>1.012644188247241</v>
       </c>
       <c r="F23">
-        <v>1.062093936824759</v>
+        <v>1.023140297133504</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046036040127074</v>
+        <v>1.049438060775563</v>
       </c>
       <c r="J23">
-        <v>1.050295159096963</v>
+        <v>1.031383556058553</v>
       </c>
       <c r="K23">
-        <v>1.054301695367446</v>
+        <v>1.03799411479336</v>
       </c>
       <c r="L23">
-        <v>1.058187491825171</v>
+        <v>1.027662145779756</v>
       </c>
       <c r="M23">
-        <v>1.065638583651581</v>
+        <v>1.037964337367104</v>
       </c>
       <c r="N23">
-        <v>1.020564190363375</v>
+        <v>1.013847798888034</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.04510915847056</v>
+        <v>1.009279525177678</v>
       </c>
       <c r="D24">
-        <v>1.051877249320214</v>
+        <v>1.029258154906198</v>
       </c>
       <c r="E24">
-        <v>1.056057632252338</v>
+        <v>1.019662704936013</v>
       </c>
       <c r="F24">
-        <v>1.063534828928625</v>
+        <v>1.030321854777572</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046490297469562</v>
+        <v>1.052495041793322</v>
       </c>
       <c r="J24">
-        <v>1.051238070177496</v>
+        <v>1.036424987996591</v>
       </c>
       <c r="K24">
-        <v>1.055192823834828</v>
+        <v>1.042790234101288</v>
       </c>
       <c r="L24">
-        <v>1.059359159985243</v>
+        <v>1.033353101454313</v>
       </c>
       <c r="M24">
-        <v>1.066811534167725</v>
+        <v>1.043836616999422</v>
       </c>
       <c r="N24">
-        <v>1.020883123913723</v>
+        <v>1.015566272993947</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.046802780466384</v>
+        <v>1.018080286023784</v>
       </c>
       <c r="D25">
-        <v>1.053225895758421</v>
+        <v>1.036044540476968</v>
       </c>
       <c r="E25">
-        <v>1.057735786234059</v>
+        <v>1.027519669059052</v>
       </c>
       <c r="F25">
-        <v>1.065210577546602</v>
+        <v>1.038346563929585</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047011718578489</v>
+        <v>1.055849013496525</v>
       </c>
       <c r="J25">
-        <v>1.052330144688975</v>
+        <v>1.042014129466312</v>
       </c>
       <c r="K25">
-        <v>1.056224648951276</v>
+        <v>1.048107941292221</v>
       </c>
       <c r="L25">
-        <v>1.06072093660273</v>
+        <v>1.039705286640792</v>
       </c>
       <c r="M25">
-        <v>1.068173458494329</v>
+        <v>1.050377396737191</v>
       </c>
       <c r="N25">
-        <v>1.021252167987374</v>
+        <v>1.017471069788582</v>
       </c>
     </row>
   </sheetData>
